--- a/氣象性能評估工具V2/data/obs/2016-06-24_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-24_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="221">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-24-00</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>27.6</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>26.9</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-24-01</t>
   </si>
   <si>
-    <t>22.8</t>
-  </si>
-  <si>
     <t>26.8</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>28.9</t>
   </si>
   <si>
+    <t>24.6</t>
+  </si>
+  <si>
     <t>2016-06-24-02</t>
   </si>
   <si>
-    <t>24.6</t>
-  </si>
-  <si>
     <t>23.7</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>26.1</t>
   </si>
   <si>
+    <t>24.9</t>
+  </si>
+  <si>
     <t>2016-06-24-03</t>
   </si>
   <si>
-    <t>24.9</t>
-  </si>
-  <si>
     <t>23.4</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>7.0</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-24-04</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>23.3</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>7.4</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-24-05</t>
   </si>
   <si>
-    <t>23.1</t>
-  </si>
-  <si>
     <t>23.5</t>
   </si>
   <si>
@@ -295,12 +295,12 @@
     <t>8.1</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-24-06</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>24.8</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>30.5</t>
   </si>
   <si>
+    <t>25.3</t>
+  </si>
+  <si>
     <t>2016-06-24-07</t>
   </si>
   <si>
-    <t>25.3</t>
-  </si>
-  <si>
     <t>30.1</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>30.6</t>
   </si>
   <si>
+    <t>25.0</t>
+  </si>
+  <si>
     <t>2016-06-24-14</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
     <t>34.5</t>
   </si>
   <si>
@@ -574,12 +574,12 @@
     <t>33.9</t>
   </si>
   <si>
+    <t>25.5</t>
+  </si>
+  <si>
     <t>2016-06-24-15</t>
   </si>
   <si>
-    <t>25.5</t>
-  </si>
-  <si>
     <t>29.8</t>
   </si>
   <si>
@@ -625,10 +625,10 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-24-19</t>
-  </si>
-  <si>
-    <t>23.0</t>
   </si>
   <si>
     <t>20.8</t>
@@ -683,6 +683,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -712,8 +715,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,11 +1096,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1169,11 +1173,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -1246,11 +1250,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -1323,11 +1327,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1400,11 +1404,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -1477,11 +1481,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1554,11 +1558,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1631,11 +1635,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -1708,7 +1712,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B10" t="s">
@@ -1785,7 +1789,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B11" t="s">
@@ -1862,7 +1866,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B12" t="s">
@@ -1939,7 +1943,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B13" t="s">
@@ -2016,7 +2020,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B14" t="s">
@@ -2093,11 +2097,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>140</v>
@@ -2170,11 +2174,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
         <v>181</v>
-      </c>
-      <c r="B16" t="s">
-        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>121</v>
@@ -2247,11 +2251,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
         <v>186</v>
-      </c>
-      <c r="B17" t="s">
-        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -2324,7 +2328,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B18" t="s">
@@ -2367,7 +2371,7 @@
         <v>110</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
         <v>193</v>
@@ -2401,7 +2405,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B19" t="s">
@@ -2411,7 +2415,7 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
         <v>110</v>
@@ -2478,7 +2482,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B20" t="s">
@@ -2555,11 +2559,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s">
         <v>203</v>
-      </c>
-      <c r="B21" t="s">
-        <v>204</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -2632,11 +2636,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -2709,17 +2713,17 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -2752,7 +2756,7 @@
         <v>58</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s">
         <v>212</v>
@@ -2786,7 +2790,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B24" t="s">
@@ -2796,7 +2800,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
         <v>173</v>
@@ -2863,7 +2867,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B25" t="s">
